--- a/data/01 大断面/赣江上游.xlsx
+++ b/data/01 大断面/赣江上游.xlsx
@@ -1,39 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\计算科\“千吨万人”农村饮水工程监测预警系统建设实施方案\20221202咨询会后修改\1231现场查勘结果\01 大断面测量成果\大断面python画图用数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CPS\MyProject\projsect_persional\vue-echarts\duanmianzhexiantu\data\01 大断面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA4AB8-DAA9-488A-B039-70C5CBDCEBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F463983-3057-4E20-893A-EDFAD83A90F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信丰县小河镇小河村农饮工程" sheetId="4" r:id="rId1"/>
     <sheet name="鹤子镇农饮安全巩固提升工程" sheetId="3" r:id="rId2"/>
     <sheet name="储谭镇圩镇农村饮水安全集中供水工程" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>垂线号</t>
   </si>
@@ -65,31 +54,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>防洪标准</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低枯水位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>取水口高程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史最高水位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防洪标准 20年一遇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测洪标准 10年一遇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低枯水标准</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -101,11 +66,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>防洪标准 100年一遇</t>
+    <t>调查最高水位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测洪标准 50年一遇</t>
+    <t>低枯水预警水位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极枯水预警水位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -113,12 +82,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +113,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -204,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,45 +199,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -263,6 +228,36 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,11 +974,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>储谭镇圩镇农村饮水安全集中供水工程!$D$1</c:f>
+              <c:f>储谭镇圩镇农村饮水安全集中供水工程!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>防洪标准</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1002,81 +997,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>储谭镇圩镇农村饮水安全集中供水工程!$D$2:$D$25</c:f>
+              <c:f>储谭镇圩镇农村饮水安全集中供水工程!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>97</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,12 +1019,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>储谭镇圩镇农村饮水安全集中供水工程!$E$1</c:f>
+              <c:f>储谭镇圩镇农村饮水安全集中供水工程!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>低枯水位</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1116,82 +1039,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>储谭镇圩镇农村饮水安全集中供水工程!$E$2:$E$25</c:f>
+              <c:f>储谭镇圩镇农村饮水安全集中供水工程!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>94.7</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2688,13 +2539,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -2986,7 +2837,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3007,91 +2858,91 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="15" t="s">
-        <v>17</v>
+      <c r="D1" s="9"/>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
-        <v>153.19720000000001</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="15">
-        <v>150.69999999999999</v>
+      <c r="C2" s="22">
+        <v>158.55720000000002</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="14">
+        <v>154.24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>8.4400569340682594</v>
       </c>
-      <c r="C3" s="8">
-        <v>148.4718</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="17">
-        <v>148.19999999999999</v>
+      <c r="C3" s="22">
+        <v>153.83180000000002</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15">
+        <v>147.19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>18.077663320512698</v>
       </c>
-      <c r="C4" s="8">
-        <v>147.43809999999999</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>15</v>
+      <c r="C4" s="22">
+        <v>152.79810000000001</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="16">
-        <v>142.69999999999999</v>
+        <v>147.29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>24.729420353990001</v>
       </c>
-      <c r="C5" s="8">
-        <v>146.24260000000001</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="16">
-        <v>147.29</v>
+      <c r="C5" s="22">
+        <v>151.60260000000002</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17">
+        <v>145.76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>29.380643520621199</v>
       </c>
-      <c r="C6" s="8">
-        <v>144.62389999999999</v>
+      <c r="C6" s="22">
+        <v>149.98390000000001</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5"/>
@@ -3100,11 +2951,11 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>33.2603028083212</v>
       </c>
-      <c r="C7" s="8">
-        <v>143.0094</v>
+      <c r="C7" s="22">
+        <v>148.36940000000001</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5"/>
@@ -3113,11 +2964,11 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>34.109821324085303</v>
       </c>
-      <c r="C8" s="8">
-        <v>142.6704</v>
+      <c r="C8" s="22">
+        <v>148.03040000000001</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="5"/>
@@ -3126,11 +2977,11 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>35.2703808207864</v>
       </c>
-      <c r="C9" s="8">
-        <v>142.47640000000001</v>
+      <c r="C9" s="22">
+        <v>147.83640000000003</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3139,506 +2990,506 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>38.363249359415498</v>
       </c>
-      <c r="C10" s="8">
-        <v>141.9906</v>
+      <c r="C10" s="22">
+        <v>147.35060000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>42.894151930138101</v>
       </c>
-      <c r="C11" s="8">
-        <v>140.29499999999999</v>
+      <c r="C11" s="22">
+        <v>145.655</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>48.439398011947198</v>
       </c>
-      <c r="C12" s="8">
-        <v>140.34</v>
+      <c r="C12" s="22">
+        <v>145.70000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>54.635407414006799</v>
       </c>
-      <c r="C13" s="8">
-        <v>140.62</v>
+      <c r="C13" s="22">
+        <v>145.98000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>60.469977066676897</v>
       </c>
-      <c r="C14" s="8">
-        <v>141.4847</v>
+      <c r="C14" s="22">
+        <v>146.84470000000002</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>66.421455137406298</v>
       </c>
-      <c r="C15" s="8">
-        <v>142.2432</v>
+      <c r="C15" s="22">
+        <v>147.60320000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>67.363678759493595</v>
       </c>
-      <c r="C16" s="8">
-        <v>142.12909999999999</v>
+      <c r="C16" s="22">
+        <v>147.48910000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>68.300290975960905</v>
       </c>
-      <c r="C17" s="8">
-        <v>142.20249999999999</v>
+      <c r="C17" s="22">
+        <v>147.5625</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>70.842120255185606</v>
       </c>
-      <c r="C18" s="8">
-        <v>142.10310000000001</v>
+      <c r="C18" s="22">
+        <v>147.46310000000003</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>72.353659977237797</v>
       </c>
-      <c r="C19" s="8">
-        <v>142.08959999999999</v>
+      <c r="C19" s="22">
+        <v>147.4496</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>74.477439259822205</v>
       </c>
-      <c r="C20" s="8">
-        <v>141.96709999999999</v>
+      <c r="C20" s="22">
+        <v>147.3271</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>77.143663599838305</v>
       </c>
-      <c r="C21" s="8">
-        <v>141.88669999999999</v>
+      <c r="C21" s="22">
+        <v>147.2467</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>80.365864416456901</v>
       </c>
-      <c r="C22" s="8">
-        <v>141.6585</v>
+      <c r="C22" s="22">
+        <v>147.01850000000002</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>83.501138095303702</v>
       </c>
-      <c r="C23" s="8">
-        <v>141.6472</v>
+      <c r="C23" s="22">
+        <v>147.00720000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>86.639672981051802</v>
       </c>
-      <c r="C24" s="8">
-        <v>142.1378</v>
+      <c r="C24" s="22">
+        <v>147.49780000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>92.797359525986394</v>
       </c>
-      <c r="C25" s="8">
-        <v>142.40270000000001</v>
+      <c r="C25" s="22">
+        <v>147.76270000000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>94.789584309971005</v>
       </c>
-      <c r="C26" s="8">
-        <v>142.17779999999999</v>
+      <c r="C26" s="22">
+        <v>147.5378</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>98.668548329566605</v>
       </c>
-      <c r="C27" s="8">
-        <v>142.04679999999999</v>
+      <c r="C27" s="22">
+        <v>147.4068</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="7">
         <v>102.53353255850701</v>
       </c>
-      <c r="C28" s="8">
-        <v>142.1105</v>
+      <c r="C28" s="22">
+        <v>147.47050000000002</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="7">
         <v>107.952311492276</v>
       </c>
-      <c r="C29" s="8">
-        <v>142.35990000000001</v>
+      <c r="C29" s="22">
+        <v>147.71990000000002</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="7">
         <v>109.70871375288399</v>
       </c>
-      <c r="C30" s="8">
-        <v>142.33879999999999</v>
+      <c r="C30" s="22">
+        <v>147.69880000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="7">
         <v>111.529175901423</v>
       </c>
-      <c r="C31" s="8">
-        <v>142.39510000000001</v>
+      <c r="C31" s="22">
+        <v>147.75510000000003</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="7">
         <v>114.129423225797</v>
       </c>
-      <c r="C32" s="8">
-        <v>142.55170000000001</v>
+      <c r="C32" s="22">
+        <v>147.91170000000002</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="7">
         <v>115.999526119118</v>
       </c>
-      <c r="C33" s="8">
-        <v>142.51589999999999</v>
+      <c r="C33" s="22">
+        <v>147.8759</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>118.133508876223</v>
       </c>
-      <c r="C34" s="8">
-        <v>142.39789999999999</v>
+      <c r="C34" s="22">
+        <v>147.75790000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>120.132563716349</v>
       </c>
-      <c r="C35" s="8">
-        <v>142.3321</v>
+      <c r="C35" s="22">
+        <v>147.69210000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="7">
         <v>126.96313901010799</v>
       </c>
-      <c r="C36" s="8">
-        <v>142.42779999999999</v>
+      <c r="C36" s="22">
+        <v>147.7878</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="7">
         <v>132.77976399572</v>
       </c>
-      <c r="C37" s="8">
-        <v>142.34960000000001</v>
+      <c r="C37" s="22">
+        <v>147.70960000000002</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="7">
         <v>136.042869740176</v>
       </c>
-      <c r="C38" s="8">
-        <v>142.65899999999999</v>
+      <c r="C38" s="22">
+        <v>148.01900000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="7">
         <v>138.12162963088301</v>
       </c>
-      <c r="C39" s="8">
-        <v>142.7313</v>
+      <c r="C39" s="22">
+        <v>148.09130000000002</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="7">
         <v>139.74053014997801</v>
       </c>
-      <c r="C40" s="8">
-        <v>142.70959999999999</v>
+      <c r="C40" s="22">
+        <v>148.06960000000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="7">
         <v>143.148185518155</v>
       </c>
-      <c r="C41" s="8">
-        <v>142.97919999999999</v>
+      <c r="C41" s="22">
+        <v>148.33920000000001</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="7">
         <v>148.35488689429999</v>
       </c>
-      <c r="C42" s="8">
-        <v>143.14709999999999</v>
+      <c r="C42" s="22">
+        <v>148.50710000000001</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="7">
         <v>161.796483136066</v>
       </c>
-      <c r="C43" s="8">
-        <v>143.37819999999999</v>
+      <c r="C43" s="22">
+        <v>148.73820000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="7">
         <v>172.43363875284001</v>
       </c>
-      <c r="C44" s="8">
-        <v>143.14709999999999</v>
+      <c r="C44" s="22">
+        <v>148.50710000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="7">
         <v>181.479177128852</v>
       </c>
-      <c r="C45" s="8">
-        <v>143.1317</v>
+      <c r="C45" s="22">
+        <v>148.49170000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="7">
         <v>186.28418889223099</v>
       </c>
-      <c r="C46" s="8">
-        <v>142.99700000000001</v>
+      <c r="C46" s="22">
+        <v>148.35700000000003</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="7">
         <v>189.51844418554001</v>
       </c>
-      <c r="C47" s="8">
-        <v>142.9538</v>
+      <c r="C47" s="22">
+        <v>148.31380000000001</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="7">
         <v>194.12271286344401</v>
       </c>
-      <c r="C48" s="8">
-        <v>143.2124</v>
+      <c r="C48" s="22">
+        <v>148.57240000000002</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="7">
         <v>198.91103763163699</v>
       </c>
-      <c r="C49" s="8">
-        <v>143.11709999999999</v>
+      <c r="C49" s="22">
+        <v>148.47710000000001</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="7">
         <v>203.98208369021901</v>
       </c>
-      <c r="C50" s="8">
-        <v>143.02539999999999</v>
+      <c r="C50" s="22">
+        <v>148.3854</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="7">
         <v>221.5</v>
       </c>
-      <c r="C51" s="8">
-        <v>143.08000000000001</v>
+      <c r="C51" s="22">
+        <v>148.44000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="7">
         <v>222.09449103864901</v>
       </c>
-      <c r="C52" s="8">
-        <v>146.31120000000001</v>
+      <c r="C52" s="22">
+        <v>151.67120000000003</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="7">
         <v>228.43139104122599</v>
       </c>
-      <c r="C53" s="8">
-        <v>147.9727</v>
+      <c r="C53" s="22">
+        <v>153.33270000000002</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="7">
         <v>249.267217797554</v>
       </c>
-      <c r="C54" s="8">
-        <v>147.61869999999999</v>
+      <c r="C54" s="22">
+        <v>152.9787</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="7">
         <v>263.03102005259097</v>
       </c>
-      <c r="C55" s="8">
-        <v>147.3768</v>
+      <c r="C55" s="22">
+        <v>152.73680000000002</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3648,8 +3499,8 @@
       <c r="B56" s="4">
         <v>284</v>
       </c>
-      <c r="C56" s="4">
-        <v>151.25</v>
+      <c r="C56" s="23">
+        <v>156.61000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3663,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3689,113 +3540,118 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="13">
         <v>408.55</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="4">
         <v>408.45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="13">
         <v>408.21</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="18">
+        <v>408.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="C4" s="13">
+        <v>408.12</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="18">
+        <v>408.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="C5" s="13">
         <v>408.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="C4" s="20">
-        <v>408.12</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="16">
-        <v>408.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="21">
+        <v>408.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2.41</v>
+      </c>
+      <c r="C6" s="13">
+        <v>408.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="C5" s="20">
-        <v>408.1</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="C7" s="13">
+        <v>408.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3.6</v>
+      </c>
+      <c r="C8" s="13">
+        <v>408.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19">
-        <v>2.41</v>
-      </c>
-      <c r="C6" s="20">
-        <v>408.23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>5</v>
-      </c>
-      <c r="B7" s="19">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20">
-        <v>408.29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19">
-        <v>3.6</v>
-      </c>
-      <c r="C8" s="20">
-        <v>408.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="B9" s="12">
         <v>3.8</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="13">
         <v>409.67</v>
       </c>
     </row>
@@ -3808,21 +3664,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D8DB0A-D260-4004-A348-70CEF7B1DA65}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="39.5" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3832,20 +3688,15 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3855,20 +3706,15 @@
       <c r="C2" s="1">
         <v>98.16</v>
       </c>
-      <c r="D2">
-        <v>97</v>
-      </c>
-      <c r="E2" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="15">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3878,20 +3724,15 @@
       <c r="C3" s="1">
         <v>97.07</v>
       </c>
-      <c r="D3">
-        <v>97</v>
-      </c>
-      <c r="E3" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="17">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3901,20 +3742,15 @@
       <c r="C4" s="1">
         <v>95.77</v>
       </c>
-      <c r="D4">
-        <v>97</v>
-      </c>
-      <c r="E4" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="16">
-        <v>94.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="20">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3924,21 +3760,16 @@
       <c r="C5" s="1">
         <v>96.28</v>
       </c>
-      <c r="D5">
-        <v>97</v>
-      </c>
-      <c r="E5" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="16">
-        <v>95.1</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="21">
+        <v>94.83</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3948,17 +3779,12 @@
       <c r="C6" s="1">
         <v>96.09</v>
       </c>
-      <c r="D6">
-        <v>97</v>
-      </c>
-      <c r="E6" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3968,17 +3794,12 @@
       <c r="C7" s="1">
         <v>95.68</v>
       </c>
-      <c r="D7">
-        <v>97</v>
-      </c>
-      <c r="E7" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3988,17 +3809,12 @@
       <c r="C8" s="1">
         <v>95.33</v>
       </c>
-      <c r="D8">
-        <v>97</v>
-      </c>
-      <c r="E8" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4008,17 +3824,12 @@
       <c r="C9" s="3">
         <v>95.17</v>
       </c>
-      <c r="D9">
-        <v>97</v>
-      </c>
-      <c r="E9" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4028,17 +3839,12 @@
       <c r="C10" s="1">
         <v>94.59</v>
       </c>
-      <c r="D10">
-        <v>97</v>
-      </c>
-      <c r="E10" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" s="2"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4048,17 +3854,12 @@
       <c r="C11" s="1">
         <v>94.59</v>
       </c>
-      <c r="D11">
-        <v>97</v>
-      </c>
-      <c r="E11" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4068,17 +3869,12 @@
       <c r="C12" s="1">
         <v>94.62</v>
       </c>
-      <c r="D12">
-        <v>97</v>
-      </c>
-      <c r="E12" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12" s="2"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4088,17 +3884,12 @@
       <c r="C13" s="1">
         <v>94.73</v>
       </c>
-      <c r="D13">
-        <v>97</v>
-      </c>
-      <c r="E13" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4108,17 +3899,12 @@
       <c r="C14" s="1">
         <v>94.68</v>
       </c>
-      <c r="D14">
-        <v>97</v>
-      </c>
-      <c r="E14" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4128,17 +3914,12 @@
       <c r="C15" s="1">
         <v>94.86</v>
       </c>
-      <c r="D15">
-        <v>97</v>
-      </c>
-      <c r="E15" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4148,17 +3929,12 @@
       <c r="C16" s="3">
         <v>95.17</v>
       </c>
-      <c r="D16">
-        <v>97</v>
-      </c>
-      <c r="E16" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4168,17 +3944,12 @@
       <c r="C17" s="1">
         <v>95.43</v>
       </c>
-      <c r="D17">
-        <v>97</v>
-      </c>
-      <c r="E17" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4188,17 +3959,12 @@
       <c r="C18" s="1">
         <v>96.02</v>
       </c>
-      <c r="D18">
-        <v>97</v>
-      </c>
-      <c r="E18" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4208,17 +3974,12 @@
       <c r="C19" s="1">
         <v>96.35</v>
       </c>
-      <c r="D19">
-        <v>97</v>
-      </c>
-      <c r="E19" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="2"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4228,17 +3989,12 @@
       <c r="C20" s="1">
         <v>96.55</v>
       </c>
-      <c r="D20">
-        <v>97</v>
-      </c>
-      <c r="E20" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4248,17 +4004,12 @@
       <c r="C21" s="1">
         <v>96.62</v>
       </c>
-      <c r="D21">
-        <v>97</v>
-      </c>
-      <c r="E21" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4268,17 +4019,12 @@
       <c r="C22" s="1">
         <v>97.06</v>
       </c>
-      <c r="D22">
-        <v>97</v>
-      </c>
-      <c r="E22" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4288,17 +4034,12 @@
       <c r="C23" s="1">
         <v>97.24</v>
       </c>
-      <c r="D23">
-        <v>97</v>
-      </c>
-      <c r="E23" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4308,17 +4049,12 @@
       <c r="C24" s="1">
         <v>97.29</v>
       </c>
-      <c r="D24">
-        <v>97</v>
-      </c>
-      <c r="E24" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -4328,25 +4064,20 @@
       <c r="C25" s="1">
         <v>98.47</v>
       </c>
-      <c r="D25">
-        <v>97</v>
-      </c>
-      <c r="E25" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
